--- a/3-semester/physics/lab3.xlsx
+++ b/3-semester/physics/lab3.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakle\YandexDisk\University\physics2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rgpu\3-semester\physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016A676F-ED2F-4F6B-AC9F-97E65DDFDD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077D8088-C701-4169-8068-14BE9DB64752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лабораторная работа № 3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -182,6 +182,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -191,12 +194,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +214,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -291,7 +291,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$2</c:f>
+              <c:f>'Лабораторная работа № 3'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -314,7 +314,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$75</c:f>
+              <c:f>'Лабораторная работа № 3'!$A$3:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -542,7 +542,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$75</c:f>
+              <c:f>'Лабораторная работа № 3'!$F$3:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -1537,9 +1537,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1577,7 +1577,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1683,7 +1683,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1836,30 +1836,30 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.5546875" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1882,7 +1882,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>25</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>30</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>35</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45</v>
       </c>
@@ -2132,7 +2132,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>50</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>55</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>65</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>70</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>75</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>80</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>85</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>90</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>95</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>100</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>105</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>110</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>115</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>120</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>125</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>130</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>135</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>140</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>145</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>150</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>155</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>160</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>165</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>170</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>175</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>180</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>185</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>190</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>195</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>200</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>205</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>210</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>215</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>220</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>225</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>230</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>235</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>240</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>245</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>250</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>255</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>260</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>265</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>270</v>
       </c>
@@ -3257,7 +3257,7 @@
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>275</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>280</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>285</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>290</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>295</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>300</v>
       </c>
@@ -3407,7 +3407,7 @@
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>305</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>310</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>315</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>320</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>325</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>330</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>335</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>340</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>345</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>350</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>355</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>360</v>
       </c>
